--- a/server/public/annex/Sample Format.xlsx
+++ b/server/public/annex/Sample Format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLM User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DAC2A6-05F1-4200-B7FB-FE3B8494A763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DB2EEE-33EA-42A3-970B-04BBDB2678D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18E06211-D331-4447-BD2C-83E9FEE34C8E}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>SONJA ANDRIA</t>
   </si>
   <si>
-    <t>COG W/ GWA (2)</t>
-  </si>
-  <si>
     <t>PERDIGON</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t xml:space="preserve">GRADE EQUIVALENCY </t>
+  </si>
+  <si>
+    <t>CERTIFICATE OF GRADES WITH GWA</t>
   </si>
 </sst>
 </file>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98670DD4-04D4-4AB3-8E4D-D04F69A0E209}">
   <dimension ref="A7:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F34" sqref="B17:F39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1129,7 +1129,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -1146,7 +1146,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -1163,7 +1163,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -1180,7 +1180,7 @@
         <v>27</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -1197,7 +1197,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
@@ -1214,7 +1214,7 @@
         <v>32</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -1231,7 +1231,7 @@
         <v>35</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
@@ -1248,7 +1248,7 @@
         <v>38</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>35</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
@@ -1282,7 +1282,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -1299,7 +1299,7 @@
         <v>45</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
@@ -1316,7 +1316,7 @@
         <v>38</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="13" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
@@ -1339,14 +1339,14 @@
         <v>15</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
@@ -1354,14 +1354,14 @@
         <v>16</v>
       </c>
       <c r="C33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
@@ -1369,14 +1369,14 @@
         <v>17</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
@@ -1384,16 +1384,16 @@
         <v>18</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="E35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="F35" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
@@ -1401,16 +1401,16 @@
         <v>19</v>
       </c>
       <c r="C36" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="E36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>62</v>
-      </c>
       <c r="F36" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
@@ -1418,16 +1418,16 @@
         <v>20</v>
       </c>
       <c r="C37" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
@@ -1435,16 +1435,16 @@
         <v>21</v>
       </c>
       <c r="C38" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
@@ -1452,16 +1452,16 @@
         <v>22</v>
       </c>
       <c r="C39" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="E39" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="F39" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
